--- a/data/georgia_census/imereti/bagdadi/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/bagdadi/healthcare_staff.xlsx
@@ -1373,13 +1373,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6550E8C3-D7C9-4585-B0C9-074F9467AF36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF293CD5-2333-474D-AE43-28D1C49AD6CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF921E19-2575-42D4-B600-B59BA99E9E18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D160AB-5139-405A-9910-44D0DAABFCD4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B48843-DE91-41CE-947E-7861384DDE01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CDA87-C460-43C9-8ACB-F336F9C9DD49}"/>
 </file>